--- a/SeperationSectionAC_sheet.xlsx
+++ b/SeperationSectionAC_sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akullman\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akullman\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20483" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t xml:space="preserve">Temperature C             </t>
   </si>
@@ -99,6 +99,24 @@
   </si>
   <si>
     <t>Feed Stage</t>
+  </si>
+  <si>
+    <t>Condenser T</t>
+  </si>
+  <si>
+    <t>Reboiler T</t>
+  </si>
+  <si>
+    <t>1-A</t>
+  </si>
+  <si>
+    <t>R601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  TRANS-01                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  HCL                     </t>
   </si>
 </sst>
 </file>
@@ -416,18 +434,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>16</v>
       </c>
@@ -443,8 +462,29 @@
       <c r="F1">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1">
+        <v>2</v>
+      </c>
+      <c r="L1">
+        <v>3</v>
+      </c>
+      <c r="M1">
+        <v>9</v>
+      </c>
+      <c r="N1">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -463,8 +503,32 @@
       <c r="F3">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>545</v>
+      </c>
+      <c r="K3">
+        <v>25</v>
+      </c>
+      <c r="L3">
+        <v>511</v>
+      </c>
+      <c r="M3">
+        <v>200</v>
+      </c>
+      <c r="N3">
+        <v>50</v>
+      </c>
+      <c r="O3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -483,8 +547,32 @@
       <c r="F4">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>11.7</v>
+      </c>
+      <c r="J4">
+        <v>3.24</v>
+      </c>
+      <c r="K4">
+        <v>6.44</v>
+      </c>
+      <c r="L4">
+        <v>0.27</v>
+      </c>
+      <c r="M4">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="N4">
+        <v>2.09</v>
+      </c>
+      <c r="O4">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -503,8 +591,32 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -523,8 +635,32 @@
       <c r="F6">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>75.89</v>
+      </c>
+      <c r="J6">
+        <v>75.89</v>
+      </c>
+      <c r="K6">
+        <v>19.7</v>
+      </c>
+      <c r="L6">
+        <v>95.59</v>
+      </c>
+      <c r="M6">
+        <v>95.59</v>
+      </c>
+      <c r="N6">
+        <v>95.59</v>
+      </c>
+      <c r="O6">
+        <v>95.59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -543,8 +679,32 @@
       <c r="F7">
         <v>1186.4860000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>3193.5</v>
+      </c>
+      <c r="J7">
+        <v>3193.5</v>
+      </c>
+      <c r="K7">
+        <v>1396.836</v>
+      </c>
+      <c r="L7">
+        <v>4590.3710000000001</v>
+      </c>
+      <c r="M7">
+        <v>4590.3710000000001</v>
+      </c>
+      <c r="N7">
+        <v>4590.3710000000001</v>
+      </c>
+      <c r="O7">
+        <v>4590.3360000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -563,8 +723,32 @@
       <c r="F8">
         <v>22.943999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>2181.1489999999999</v>
+      </c>
+      <c r="J8">
+        <v>26559.781999999999</v>
+      </c>
+      <c r="K8">
+        <v>1164.963</v>
+      </c>
+      <c r="L8">
+        <v>384683.89899999998</v>
+      </c>
+      <c r="M8">
+        <v>25572.928</v>
+      </c>
+      <c r="N8">
+        <v>19972.891</v>
+      </c>
+      <c r="O8">
+        <v>34067.222000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -583,8 +767,32 @@
       <c r="F9">
         <v>-0.36299999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="J9">
+        <v>5.2130000000000001</v>
+      </c>
+      <c r="K9">
+        <v>-0.01</v>
+      </c>
+      <c r="L9">
+        <v>3.1459999999999999</v>
+      </c>
+      <c r="M9">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="N9">
+        <v>-0.56499999999999995</v>
+      </c>
+      <c r="O9">
+        <v>5.2039999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -603,8 +811,32 @@
       <c r="F10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -623,8 +855,32 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>75.89</v>
+      </c>
+      <c r="J11">
+        <v>75.89</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>56.207999999999998</v>
+      </c>
+      <c r="M11">
+        <v>56.207999999999998</v>
+      </c>
+      <c r="N11">
+        <v>56.207999999999998</v>
+      </c>
+      <c r="O11">
+        <v>75.89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -643,8 +899,32 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>19.7</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -663,8 +943,32 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>18.221</v>
+      </c>
+      <c r="M13">
+        <v>18.221</v>
+      </c>
+      <c r="N13">
+        <v>18.221</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -683,8 +987,32 @@
       <c r="F14">
         <v>15.443</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1.4430000000000001</v>
+      </c>
+      <c r="M14">
+        <v>1.4430000000000001</v>
+      </c>
+      <c r="N14">
+        <v>1.4430000000000001</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -703,8 +1031,32 @@
       <c r="F15">
         <v>4.7E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="N15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -721,6 +1073,30 @@
         <v>0</v>
       </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>19.7</v>
+      </c>
+      <c r="M16">
+        <v>19.7</v>
+      </c>
+      <c r="N16">
+        <v>19.7</v>
+      </c>
+      <c r="O16">
         <v>0</v>
       </c>
     </row>
@@ -795,78 +1171,112 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B28">
-        <v>-28599.716799999998</v>
+        <v>33.046697700000003</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29">
-        <v>28392.684600000001</v>
+        <v>-28599.716799999998</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B30">
-        <v>32</v>
+        <v>58.177211700000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>28392.684600000001</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B35">
-        <v>0.22017100000000001</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36">
-        <v>-34840.392699999997</v>
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B37">
-        <v>35363.925000000003</v>
+        <v>0.22017100000000001</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38">
+        <f>328.162-273.15</f>
+        <v>55.012</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39">
+        <v>-34840.392699999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <f>383.999-273.15</f>
+        <v>110.84900000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>35363.925000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
         <v>24</v>
       </c>
-      <c r="B38">
+      <c r="B42">
         <v>17</v>
       </c>
     </row>
